--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N2">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O2">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P2">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q2">
-        <v>0.7070347329666667</v>
+        <v>0.8519279961466667</v>
       </c>
       <c r="R2">
-        <v>6.363312596700001</v>
+        <v>7.667351965320001</v>
       </c>
       <c r="S2">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="T2">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>167.922954</v>
       </c>
       <c r="O3">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P3">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q3">
         <v>1.95331711714</v>
@@ -641,10 +641,10 @@
         <v>17.57985405426</v>
       </c>
       <c r="S3">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="T3">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N4">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O4">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P4">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q4">
-        <v>0.002507104487777777</v>
+        <v>0.002142469217777777</v>
       </c>
       <c r="R4">
-        <v>0.02256394039</v>
+        <v>0.01928222296</v>
       </c>
       <c r="S4">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="T4">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N5">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q5">
-        <v>0.6136555219922222</v>
+        <v>0.1145152495577778</v>
       </c>
       <c r="R5">
-        <v>5.52289969793</v>
+        <v>1.03063724602</v>
       </c>
       <c r="S5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="T5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N6">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q6">
-        <v>0.006745304654444443</v>
+        <v>0.006357835332222223</v>
       </c>
       <c r="R6">
-        <v>0.06070774188999999</v>
+        <v>0.05722051799</v>
       </c>
       <c r="S6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="T6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N7">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q7">
-        <v>0.006493874171111111</v>
+        <v>0.0002840472344444444</v>
       </c>
       <c r="R7">
-        <v>0.05844486753999999</v>
+        <v>0.00255642511</v>
       </c>
       <c r="S7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="T7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
     </row>
   </sheetData>
